--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3821.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3821.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.438126591911462</v>
+        <v>5.208814144134521</v>
       </c>
       <c r="B1">
-        <v>1.878250616460325</v>
+        <v>4.430998802185059</v>
       </c>
       <c r="C1">
-        <v>2.917415359640171</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>5.799149704196583</v>
+        <v>4.123380661010742</v>
       </c>
       <c r="E1">
-        <v>0.9800694829377112</v>
+        <v>2.166831493377686</v>
       </c>
     </row>
   </sheetData>
